--- a/Output/Descriptives/Missings_12h.xlsx
+++ b/Output/Descriptives/Missings_12h.xlsx
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>1.643835616438356</v>
+        <v>4.657534246575342</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.547945205479452</v>
+        <v>3.013698630136986</v>
       </c>
     </row>
     <row r="14">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>3.825136612021858</v>
+        <v>4.098360655737705</v>
       </c>
     </row>
     <row r="17">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="26">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>22.19178082191781</v>
+        <v>23.01369863013699</v>
       </c>
     </row>
     <row r="27">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>23.01369863013699</v>
       </c>
     </row>
     <row r="32">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D33">
-        <v>1.095890410958904</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="34">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="D37">
-        <v>0.273972602739726</v>
+        <v>9.863013698630137</v>
       </c>
     </row>
     <row r="38">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D43">
-        <v>2.185792349726776</v>
+        <v>3.825136612021858</v>
       </c>
     </row>
     <row r="44">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="D91">
-        <v>2.465753424657534</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="92">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="93">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="D97">
-        <v>0.547945205479452</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="98">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D104">
-        <v>0.273972602739726</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="105">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="110">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="D110">
-        <v>0.547945205479452</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="111">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D111">
-        <v>0.547945205479452</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="112">
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="116">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="D116">
-        <v>6.301369863013699</v>
+        <v>7.945205479452055</v>
       </c>
     </row>
     <row r="117">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>7.671232876712329</v>
       </c>
     </row>
     <row r="122">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D122">
-        <v>2.185792349726776</v>
+        <v>2.73224043715847</v>
       </c>
     </row>
     <row r="123">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="D127">
-        <v>2.459016393442623</v>
+        <v>4.918032786885246</v>
       </c>
     </row>
     <row r="128">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D133">
-        <v>0.547945205479452</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="134">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="D134">
-        <v>3.013698630136986</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="135">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="D139">
-        <v>11.78082191780822</v>
+        <v>15.06849315068493</v>
       </c>
     </row>
     <row r="140">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="D140">
-        <v>1.36986301369863</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="141">
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="D145">
-        <v>0.273972602739726</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="146">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="D151">
-        <v>12.02185792349727</v>
+        <v>12.56830601092896</v>
       </c>
     </row>
     <row r="152">
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="D152">
-        <v>1.643835616438356</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="153">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="D157">
-        <v>25.75342465753425</v>
+        <v>26.57534246575343</v>
       </c>
     </row>
     <row r="158">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D158">
-        <v>2.191780821917808</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="159">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D163">
-        <v>10.68493150684932</v>
+        <v>12.6027397260274</v>
       </c>
     </row>
     <row r="164">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D164">
-        <v>5.205479452054795</v>
+        <v>5.47945205479452</v>
       </c>
     </row>
     <row r="165">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="D169">
-        <v>16.98630136986301</v>
+        <v>19.17808219178082</v>
       </c>
     </row>
     <row r="170">
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="D177">
-        <v>0.821917808219178</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="178">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="D181">
-        <v>0.547945205479452</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="182">
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="D187">
-        <v>1.366120218579235</v>
+        <v>2.185792349726776</v>
       </c>
     </row>
     <row r="188">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>0.273972602739726</v>
       </c>
     </row>
     <row r="194">
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="D194">
-        <v>1.643835616438356</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="195">
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="200">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="D201">
-        <v>3.561643835616438</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="202">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>3.013698630136986</v>
       </c>
     </row>
     <row r="206">
@@ -4156,7 +4156,7 @@
         </is>
       </c>
       <c r="D211">
-        <v>1.366120218579235</v>
+        <v>4.918032786885246</v>
       </c>
     </row>
     <row r="212">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="D214">
-        <v>3.835616438356165</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="215">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="D217">
-        <v>14.24657534246575</v>
+        <v>16.43835616438356</v>
       </c>
     </row>
     <row r="218">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D223">
-        <v>55.06849315068493</v>
+        <v>56.16438356164384</v>
       </c>
     </row>
     <row r="224">
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="D229">
-        <v>2.465753424657534</v>
+        <v>4.657534246575342</v>
       </c>
     </row>
     <row r="230">
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="D235">
-        <v>2.73224043715847</v>
+        <v>3.278688524590164</v>
       </c>
     </row>
     <row r="236">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D241">
-        <v>6.575342465753424</v>
+        <v>8.493150684931507</v>
       </c>
     </row>
     <row r="242">
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="248">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="D253">
-        <v>10.13698630136986</v>
+        <v>11.50684931506849</v>
       </c>
     </row>
     <row r="254">
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="D259">
-        <v>1.917808219178082</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="260">
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="D265">
-        <v>1.095890410958904</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="266">
@@ -5236,7 +5236,7 @@
         </is>
       </c>
       <c r="D271">
-        <v>0.819672131147541</v>
+        <v>1.639344262295082</v>
       </c>
     </row>
     <row r="272">
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="D277">
-        <v>0</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="278">
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="D278">
-        <v>6.301369863013699</v>
+        <v>6.575342465753424</v>
       </c>
     </row>
     <row r="279">
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="D279">
-        <v>1.36986301369863</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="280">
@@ -5398,7 +5398,7 @@
         </is>
       </c>
       <c r="D280">
-        <v>23.83561643835616</v>
+        <v>24.65753424657534</v>
       </c>
     </row>
     <row r="281">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="D283">
-        <v>0.273972602739726</v>
+        <v>7.397260273972603</v>
       </c>
     </row>
     <row r="284">
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="290">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="D291">
-        <v>0.546448087431694</v>
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="292">
@@ -5668,7 +5668,7 @@
         </is>
       </c>
       <c r="D295">
-        <v>0.819672131147541</v>
+        <v>5.46448087431694</v>
       </c>
     </row>
     <row r="296">
@@ -5776,7 +5776,7 @@
         </is>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="302">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="D307">
-        <v>0.273972602739726</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="308">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="D313">
-        <v>0.547945205479452</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="314">
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="D319">
-        <v>1.366120218579235</v>
+        <v>2.73224043715847</v>
       </c>
     </row>
     <row r="320">
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="D325">
-        <v>43.28767123287671</v>
+        <v>45.20547945205479</v>
       </c>
     </row>
     <row r="326">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D343">
-        <v>1.643835616438356</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="344">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="D351">
-        <v>0.546448087431694</v>
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="352">
@@ -6694,7 +6694,7 @@
         </is>
       </c>
       <c r="D352">
-        <v>0.273224043715847</v>
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="353">
@@ -6748,7 +6748,7 @@
         </is>
       </c>
       <c r="D355">
-        <v>0.819672131147541</v>
+        <v>1.639344262295082</v>
       </c>
     </row>
     <row r="356">
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="D357">
-        <v>0.821917808219178</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="358">
@@ -6856,7 +6856,7 @@
         </is>
       </c>
       <c r="D361">
-        <v>0.273972602739726</v>
+        <v>81.0958904109589</v>
       </c>
     </row>
     <row r="362">
@@ -6964,7 +6964,7 @@
         </is>
       </c>
       <c r="D367">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="368">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="D373">
-        <v>0.547945205479452</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="374">
@@ -7180,7 +7180,7 @@
         </is>
       </c>
       <c r="D379">
-        <v>0.819672131147541</v>
+        <v>4.644808743169399</v>
       </c>
     </row>
     <row r="380">
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="D380">
-        <v>47.67123287671232</v>
+        <v>47.94520547945205</v>
       </c>
     </row>
     <row r="381">
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="D385">
-        <v>0.547945205479452</v>
+        <v>47.94520547945205</v>
       </c>
     </row>
     <row r="386">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="D391">
-        <v>13.42465753424658</v>
+        <v>15.34246575342466</v>
       </c>
     </row>
     <row r="392">
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="D397">
-        <v>3.287671232876712</v>
+        <v>4.383561643835616</v>
       </c>
     </row>
     <row r="398">
@@ -7540,7 +7540,7 @@
         </is>
       </c>
       <c r="D399">
-        <v>0</v>
+        <v>0.273224043715847</v>
       </c>
     </row>
     <row r="400">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="D403">
-        <v>0.546448087431694</v>
+        <v>4.098360655737705</v>
       </c>
     </row>
     <row r="404">
@@ -7720,7 +7720,7 @@
         </is>
       </c>
       <c r="D409">
-        <v>4.931506849315069</v>
+        <v>6.575342465753424</v>
       </c>
     </row>
     <row r="410">
@@ -7756,7 +7756,7 @@
         </is>
       </c>
       <c r="D411">
-        <v>1.917808219178082</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="412">
@@ -7828,7 +7828,7 @@
         </is>
       </c>
       <c r="D415">
-        <v>1.643835616438356</v>
+        <v>5.47945205479452</v>
       </c>
     </row>
     <row r="416">
@@ -7864,7 +7864,7 @@
         </is>
       </c>
       <c r="D417">
-        <v>1.36986301369863</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="418">
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="D421">
-        <v>7.945205479452055</v>
+        <v>9.315068493150685</v>
       </c>
     </row>
     <row r="422">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D423">
-        <v>0</v>
+        <v>0.273972602739726</v>
       </c>
     </row>
     <row r="424">
@@ -8170,7 +8170,7 @@
         </is>
       </c>
       <c r="D434">
-        <v>1.639344262295082</v>
+        <v>1.912568306010929</v>
       </c>
     </row>
     <row r="435">
@@ -8206,7 +8206,7 @@
         </is>
       </c>
       <c r="D436">
-        <v>0.546448087431694</v>
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="437">
@@ -8260,7 +8260,7 @@
         </is>
       </c>
       <c r="D439">
-        <v>0.819672131147541</v>
+        <v>2.73224043715847</v>
       </c>
     </row>
     <row r="440">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="D441">
-        <v>0</v>
+        <v>0.273972602739726</v>
       </c>
     </row>
     <row r="442">
@@ -8404,7 +8404,7 @@
         </is>
       </c>
       <c r="D447">
-        <v>0.273972602739726</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="448">
@@ -8476,7 +8476,7 @@
         </is>
       </c>
       <c r="D451">
-        <v>0.273972602739726</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="452">
@@ -8584,7 +8584,7 @@
         </is>
       </c>
       <c r="D457">
-        <v>0</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="458">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D463">
-        <v>6.284153005464481</v>
+        <v>12.84153005464481</v>
       </c>
     </row>
     <row r="464">
@@ -8728,7 +8728,7 @@
         </is>
       </c>
       <c r="D465">
-        <v>3.287671232876712</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="466">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="D466">
-        <v>3.013698630136986</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="467">
@@ -8818,7 +8818,7 @@
         </is>
       </c>
       <c r="D470">
-        <v>4.657534246575342</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="471">
@@ -8836,7 +8836,7 @@
         </is>
       </c>
       <c r="D471">
-        <v>5.753424657534246</v>
+        <v>6.027397260273973</v>
       </c>
     </row>
     <row r="472">
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="D472">
-        <v>10.41095890410959</v>
+        <v>10.95890410958904</v>
       </c>
     </row>
     <row r="473">
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="D475">
-        <v>69.04109589041096</v>
+        <v>70.13698630136986</v>
       </c>
     </row>
     <row r="476">
@@ -9016,7 +9016,7 @@
         </is>
       </c>
       <c r="D481">
-        <v>0.821917808219178</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="482">
@@ -9034,7 +9034,7 @@
         </is>
       </c>
       <c r="D482">
-        <v>2.73224043715847</v>
+        <v>3.278688524590164</v>
       </c>
     </row>
     <row r="483">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D483">
-        <v>1.639344262295082</v>
+        <v>1.912568306010929</v>
       </c>
     </row>
     <row r="484">
@@ -9124,7 +9124,7 @@
         </is>
       </c>
       <c r="D487">
-        <v>6.557377049180328</v>
+        <v>8.469945355191257</v>
       </c>
     </row>
     <row r="488">
@@ -9142,7 +9142,7 @@
         </is>
       </c>
       <c r="D488">
-        <v>2.191780821917808</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="489">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D493">
-        <v>2.465753424657534</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="494">
@@ -9286,7 +9286,7 @@
         </is>
       </c>
       <c r="D496">
-        <v>4.383561643835616</v>
+        <v>5.753424657534246</v>
       </c>
     </row>
     <row r="497">
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="D499">
-        <v>1.095890410958904</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="500">
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="D502">
-        <v>67.12328767123287</v>
+        <v>67.67123287671232</v>
       </c>
     </row>
     <row r="503">
@@ -9448,7 +9448,7 @@
         </is>
       </c>
       <c r="D505">
-        <v>12.32876712328767</v>
+        <v>14.24657534246575</v>
       </c>
     </row>
     <row r="506">
@@ -9484,7 +9484,7 @@
         </is>
       </c>
       <c r="D507">
-        <v>1.917808219178082</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="508">
@@ -9556,7 +9556,7 @@
         </is>
       </c>
       <c r="D511">
-        <v>1.095890410958904</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="512">
@@ -9664,7 +9664,7 @@
         </is>
       </c>
       <c r="D517">
-        <v>32.32876712328767</v>
+        <v>32.87671232876712</v>
       </c>
     </row>
     <row r="518">
@@ -9718,7 +9718,7 @@
         </is>
       </c>
       <c r="D520">
-        <v>3.278688524590164</v>
+        <v>3.551912568306011</v>
       </c>
     </row>
     <row r="521">
@@ -9772,7 +9772,7 @@
         </is>
       </c>
       <c r="D523">
-        <v>0.819672131147541</v>
+        <v>1.092896174863388</v>
       </c>
     </row>
     <row r="524">
@@ -9880,7 +9880,7 @@
         </is>
       </c>
       <c r="D529">
-        <v>0</v>
+        <v>18.08219178082192</v>
       </c>
     </row>
     <row r="530">
@@ -9898,7 +9898,7 @@
         </is>
       </c>
       <c r="D530">
-        <v>12.87671232876712</v>
+        <v>13.15068493150685</v>
       </c>
     </row>
     <row r="531">
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="D535">
-        <v>0</v>
+        <v>13.15068493150685</v>
       </c>
     </row>
     <row r="536">
@@ -10024,7 +10024,7 @@
         </is>
       </c>
       <c r="D537">
-        <v>0.273972602739726</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="538">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="D541">
-        <v>0.547945205479452</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="542">
@@ -10204,7 +10204,7 @@
         </is>
       </c>
       <c r="D547">
-        <v>0.546448087431694</v>
+        <v>3.005464480874317</v>
       </c>
     </row>
     <row r="548">
@@ -10240,7 +10240,7 @@
         </is>
       </c>
       <c r="D549">
-        <v>0.273972602739726</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="550">
@@ -10312,7 +10312,7 @@
         </is>
       </c>
       <c r="D553">
-        <v>4.10958904109589</v>
+        <v>6.849315068493151</v>
       </c>
     </row>
     <row r="554">
@@ -10420,7 +10420,7 @@
         </is>
       </c>
       <c r="D559">
-        <v>1.643835616438356</v>
+        <v>4.657534246575342</v>
       </c>
     </row>
     <row r="560">
@@ -10528,7 +10528,7 @@
         </is>
       </c>
       <c r="D565">
-        <v>0</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="566">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="D566">
-        <v>3.005464480874317</v>
+        <v>3.551912568306011</v>
       </c>
     </row>
     <row r="567">
@@ -10636,7 +10636,7 @@
         </is>
       </c>
       <c r="D571">
-        <v>1.366120218579235</v>
+        <v>4.918032786885246</v>
       </c>
     </row>
     <row r="572">
@@ -10744,7 +10744,7 @@
         </is>
       </c>
       <c r="D577">
-        <v>4.383561643835616</v>
+        <v>6.027397260273973</v>
       </c>
     </row>
     <row r="578">
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="D578">
-        <v>1.36986301369863</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="579">
@@ -10852,7 +10852,7 @@
         </is>
       </c>
       <c r="D583">
-        <v>0</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="584">
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="D589">
-        <v>13.6986301369863</v>
+        <v>15.61643835616438</v>
       </c>
     </row>
     <row r="590">
@@ -10978,7 +10978,7 @@
         </is>
       </c>
       <c r="D590">
-        <v>3.013698630136986</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="591">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="D591">
-        <v>1.917808219178082</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="592">
@@ -11014,7 +11014,7 @@
         </is>
       </c>
       <c r="D592">
-        <v>1.643835616438356</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="593">
@@ -11068,7 +11068,7 @@
         </is>
       </c>
       <c r="D595">
-        <v>1.917808219178082</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="596">
@@ -11086,7 +11086,7 @@
         </is>
       </c>
       <c r="D596">
-        <v>0.547945205479452</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="597">
@@ -11176,7 +11176,7 @@
         </is>
       </c>
       <c r="D601">
-        <v>0.821917808219178</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="602">
@@ -11194,7 +11194,7 @@
         </is>
       </c>
       <c r="D602">
-        <v>0.546448087431694</v>
+        <v>1.092896174863388</v>
       </c>
     </row>
     <row r="603">
@@ -11284,7 +11284,7 @@
         </is>
       </c>
       <c r="D607">
-        <v>1.092896174863388</v>
+        <v>1.912568306010929</v>
       </c>
     </row>
     <row r="608">
@@ -11410,7 +11410,7 @@
         </is>
       </c>
       <c r="D614">
-        <v>1.643835616438356</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="615">
@@ -11500,7 +11500,7 @@
         </is>
       </c>
       <c r="D619">
-        <v>0.273972602739726</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="620">
@@ -11518,7 +11518,7 @@
         </is>
       </c>
       <c r="D620">
-        <v>2.465753424657534</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="621">
@@ -11536,7 +11536,7 @@
         </is>
       </c>
       <c r="D621">
-        <v>3.561643835616438</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="622">
@@ -11608,7 +11608,7 @@
         </is>
       </c>
       <c r="D625">
-        <v>0</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="626">
@@ -11626,7 +11626,7 @@
         </is>
       </c>
       <c r="D626">
-        <v>5.191256830601093</v>
+        <v>5.46448087431694</v>
       </c>
     </row>
     <row r="627">
@@ -11716,7 +11716,7 @@
         </is>
       </c>
       <c r="D631">
-        <v>0.546448087431694</v>
+        <v>6.284153005464481</v>
       </c>
     </row>
     <row r="632">
@@ -11824,7 +11824,7 @@
         </is>
       </c>
       <c r="D637">
-        <v>4.657534246575342</v>
+        <v>27.67123287671233</v>
       </c>
     </row>
     <row r="638">
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="D643">
-        <v>9.04109589041096</v>
+        <v>15.89041095890411</v>
       </c>
     </row>
     <row r="644">
@@ -12040,7 +12040,7 @@
         </is>
       </c>
       <c r="D649">
-        <v>1.643835616438356</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="650">
@@ -12166,7 +12166,7 @@
         </is>
       </c>
       <c r="D656">
-        <v>3.287671232876712</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="657">
@@ -12256,7 +12256,7 @@
         </is>
       </c>
       <c r="D661">
-        <v>3.561643835616438</v>
+        <v>7.671232876712329</v>
       </c>
     </row>
     <row r="662">
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="D667">
-        <v>0</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="668">
@@ -12382,7 +12382,7 @@
         </is>
       </c>
       <c r="D668">
-        <v>5.47945205479452</v>
+        <v>5.753424657534246</v>
       </c>
     </row>
     <row r="669">
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="D673">
-        <v>9.58904109589041</v>
+        <v>11.78082191780822</v>
       </c>
     </row>
     <row r="674">
@@ -12508,7 +12508,7 @@
         </is>
       </c>
       <c r="D675">
-        <v>1.36986301369863</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="676">
@@ -12580,7 +12580,7 @@
         </is>
       </c>
       <c r="D679">
-        <v>14.79452054794521</v>
+        <v>18.08219178082192</v>
       </c>
     </row>
     <row r="680">
@@ -12616,7 +12616,7 @@
         </is>
       </c>
       <c r="D681">
-        <v>0.273972602739726</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="682">
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="D686">
-        <v>0</v>
+        <v>0.273224043715847</v>
       </c>
     </row>
     <row r="687">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="D691">
-        <v>0.819672131147541</v>
+        <v>1.912568306010929</v>
       </c>
     </row>
     <row r="692">
@@ -12814,7 +12814,7 @@
         </is>
       </c>
       <c r="D692">
-        <v>0.273972602739726</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="693">
@@ -12904,7 +12904,7 @@
         </is>
       </c>
       <c r="D697">
-        <v>0</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="698">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="D698">
-        <v>1.643835616438356</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="699">
@@ -12940,7 +12940,7 @@
         </is>
       </c>
       <c r="D699">
-        <v>0.273972602739726</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="700">
@@ -13012,7 +13012,7 @@
         </is>
       </c>
       <c r="D703">
-        <v>0</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="704">
@@ -13120,7 +13120,7 @@
         </is>
       </c>
       <c r="D709">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="710">
@@ -13138,7 +13138,7 @@
         </is>
       </c>
       <c r="D710">
-        <v>1.366120218579235</v>
+        <v>1.912568306010929</v>
       </c>
     </row>
     <row r="711">
@@ -13156,7 +13156,7 @@
         </is>
       </c>
       <c r="D711">
-        <v>0</v>
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="712">
@@ -13228,7 +13228,7 @@
         </is>
       </c>
       <c r="D715">
-        <v>0.273224043715847</v>
+        <v>2.185792349726776</v>
       </c>
     </row>
     <row r="716">
@@ -13264,7 +13264,7 @@
         </is>
       </c>
       <c r="D717">
-        <v>4.931506849315069</v>
+        <v>5.205479452054795</v>
       </c>
     </row>
     <row r="718">
@@ -13336,7 +13336,7 @@
         </is>
       </c>
       <c r="D721">
-        <v>0.273972602739726</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="722">
@@ -13354,7 +13354,7 @@
         </is>
       </c>
       <c r="D722">
-        <v>5.753424657534246</v>
+        <v>6.849315068493151</v>
       </c>
     </row>
     <row r="723">
@@ -13372,7 +13372,7 @@
         </is>
       </c>
       <c r="D723">
-        <v>0.547945205479452</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="724">
@@ -13444,7 +13444,7 @@
         </is>
       </c>
       <c r="D727">
-        <v>27.3972602739726</v>
+        <v>32.05479452054794</v>
       </c>
     </row>
     <row r="728">
@@ -13552,7 +13552,7 @@
         </is>
       </c>
       <c r="D733">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="734">
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="D745">
-        <v>14.24657534246575</v>
+        <v>16.16438356164383</v>
       </c>
     </row>
     <row r="746">
@@ -13894,7 +13894,7 @@
         </is>
       </c>
       <c r="D752">
-        <v>11.78082191780822</v>
+        <v>12.05479452054795</v>
       </c>
     </row>
     <row r="753">
@@ -13984,7 +13984,7 @@
         </is>
       </c>
       <c r="D757">
-        <v>10.68493150684932</v>
+        <v>12.05479452054795</v>
       </c>
     </row>
     <row r="758">
@@ -14020,7 +14020,7 @@
         </is>
       </c>
       <c r="D759">
-        <v>3.287671232876712</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="760">
@@ -14092,7 +14092,7 @@
         </is>
       </c>
       <c r="D763">
-        <v>34.7945205479452</v>
+        <v>37.80821917808219</v>
       </c>
     </row>
     <row r="764">
@@ -14128,7 +14128,7 @@
         </is>
       </c>
       <c r="D765">
-        <v>1.095890410958904</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="766">
@@ -14200,7 +14200,7 @@
         </is>
       </c>
       <c r="D769">
-        <v>1.36986301369863</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="770">
@@ -14218,7 +14218,7 @@
         </is>
       </c>
       <c r="D770">
-        <v>0.819672131147541</v>
+        <v>1.092896174863388</v>
       </c>
     </row>
     <row r="771">
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="D771">
-        <v>1.092896174863388</v>
+        <v>1.366120218579235</v>
       </c>
     </row>
     <row r="772">
@@ -14308,7 +14308,7 @@
         </is>
       </c>
       <c r="D775">
-        <v>1.366120218579235</v>
+        <v>1.912568306010929</v>
       </c>
     </row>
     <row r="776">
@@ -14344,7 +14344,7 @@
         </is>
       </c>
       <c r="D777">
-        <v>0</v>
+        <v>0.273972602739726</v>
       </c>
     </row>
     <row r="778">
@@ -14416,7 +14416,7 @@
         </is>
       </c>
       <c r="D781">
-        <v>0</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="782">
@@ -14452,7 +14452,7 @@
         </is>
       </c>
       <c r="D783">
-        <v>1.917808219178082</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="784">
@@ -14524,7 +14524,7 @@
         </is>
       </c>
       <c r="D787">
-        <v>0.547945205479452</v>
+        <v>80.27397260273973</v>
       </c>
     </row>
     <row r="788">
@@ -14560,7 +14560,7 @@
         </is>
       </c>
       <c r="D789">
-        <v>0.273972602739726</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="790">
@@ -14632,7 +14632,7 @@
         </is>
       </c>
       <c r="D793">
-        <v>0</v>
+        <v>12.6027397260274</v>
       </c>
     </row>
     <row r="794">
@@ -14650,7 +14650,7 @@
         </is>
       </c>
       <c r="D794">
-        <v>4.371584699453552</v>
+        <v>4.918032786885246</v>
       </c>
     </row>
     <row r="795">
@@ -14740,7 +14740,7 @@
         </is>
       </c>
       <c r="D799">
-        <v>0.546448087431694</v>
+        <v>5.46448087431694</v>
       </c>
     </row>
     <row r="800">
@@ -14848,7 +14848,7 @@
         </is>
       </c>
       <c r="D805">
-        <v>2.465753424657534</v>
+        <v>11.23287671232877</v>
       </c>
     </row>
     <row r="806">
@@ -14884,7 +14884,7 @@
         </is>
       </c>
       <c r="D807">
-        <v>3.835616438356165</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="808">
@@ -14956,7 +14956,7 @@
         </is>
       </c>
       <c r="D811">
-        <v>6.301369863013699</v>
+        <v>10.68493150684932</v>
       </c>
     </row>
     <row r="812">
@@ -15064,7 +15064,7 @@
         </is>
       </c>
       <c r="D817">
-        <v>0.273972602739726</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="818">
@@ -15388,7 +15388,7 @@
         </is>
       </c>
       <c r="D835">
-        <v>4.657534246575342</v>
+        <v>6.301369863013699</v>
       </c>
     </row>
     <row r="836">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="D841">
-        <v>11.23287671232877</v>
+        <v>13.15068493150685</v>
       </c>
     </row>
     <row r="842">
@@ -15604,7 +15604,7 @@
         </is>
       </c>
       <c r="D847">
-        <v>47.39726027397261</v>
+        <v>48.49315068493151</v>
       </c>
     </row>
     <row r="848">
@@ -15712,7 +15712,7 @@
         </is>
       </c>
       <c r="D853">
-        <v>0.547945205479452</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="854">
@@ -15820,7 +15820,7 @@
         </is>
       </c>
       <c r="D859">
-        <v>1.366120218579235</v>
+        <v>2.459016393442623</v>
       </c>
     </row>
     <row r="860">
@@ -15928,7 +15928,7 @@
         </is>
       </c>
       <c r="D865">
-        <v>0</v>
+        <v>0.273972602739726</v>
       </c>
     </row>
     <row r="866">
@@ -16036,7 +16036,7 @@
         </is>
       </c>
       <c r="D871">
-        <v>0</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="872">
@@ -16054,7 +16054,7 @@
         </is>
       </c>
       <c r="D872">
-        <v>1.36986301369863</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="873">
@@ -16072,7 +16072,7 @@
         </is>
       </c>
       <c r="D873">
-        <v>0.273972602739726</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="874">
@@ -16144,7 +16144,7 @@
         </is>
       </c>
       <c r="D877">
-        <v>0</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="878">
@@ -16180,7 +16180,7 @@
         </is>
       </c>
       <c r="D879">
-        <v>67.21311475409836</v>
+        <v>67.4863387978142</v>
       </c>
     </row>
     <row r="880">
@@ -16252,7 +16252,7 @@
         </is>
       </c>
       <c r="D883">
-        <v>62.02185792349727</v>
+        <v>63.9344262295082</v>
       </c>
     </row>
     <row r="884">
@@ -16810,7 +16810,7 @@
         </is>
       </c>
       <c r="D914">
-        <v>1.36986301369863</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="915">
@@ -16918,7 +16918,7 @@
         </is>
       </c>
       <c r="D920">
-        <v>1.643835616438356</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="921">
